--- a/hdyl/docs/测试软件.xlsx
+++ b/hdyl/docs/测试软件.xlsx
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -119,49 +119,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -186,9 +143,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +181,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,9 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,29 +235,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,174 +272,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,12 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -477,6 +486,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,47 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +583,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +747,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1082,7 +1086,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="6"/>
@@ -1126,7 +1130,7 @@
         <f>60/60*25</f>
         <v>25</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <f>AVERAGE(A2:A144421)</f>
         <v>25.06</v>
       </c>
@@ -1134,11 +1138,11 @@
         <f>STDEVP(A2:A144421)</f>
         <v>0.149666295470958</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="10">
         <f>(C2-B2)*100</f>
         <v>5.99999999999987</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <f>D2/B2*100</f>
         <v>0.598665181883831</v>
       </c>
@@ -1150,81 +1154,81 @@
       <c r="A3" s="1">
         <v>25</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>25</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>25</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>25</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>25.5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>25</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>25</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>25.1</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1">
@@ -1232,7 +1236,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CA07" sheet="1" objects="1"/>
+  <sheetProtection sheet="1" objects="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
